--- a/data/pca/factorExposure/factorExposure_2011-09-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02221768813034509</v>
+        <v>0.01772299090941126</v>
       </c>
       <c r="C2">
-        <v>0.01830640274939281</v>
+        <v>-0.008076586093788397</v>
       </c>
       <c r="D2">
-        <v>0.04299391222260287</v>
+        <v>-0.03135249644385487</v>
       </c>
       <c r="E2">
-        <v>0.06820267003834783</v>
+        <v>-0.03668228411642123</v>
       </c>
       <c r="F2">
-        <v>-0.003761300197583712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03102285474288979</v>
+      </c>
+      <c r="G2">
+        <v>-0.006213974188434741</v>
+      </c>
+      <c r="H2">
+        <v>0.01855989746547256</v>
+      </c>
+      <c r="I2">
+        <v>0.01858637795392252</v>
+      </c>
+      <c r="J2">
+        <v>-0.05408599056532373</v>
+      </c>
+      <c r="K2">
+        <v>0.05951381185290875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.07876581906882456</v>
+        <v>0.09442200582139686</v>
       </c>
       <c r="C4">
-        <v>0.04707228187381217</v>
+        <v>-0.04886975238468211</v>
       </c>
       <c r="D4">
-        <v>0.04749845978410142</v>
+        <v>-0.03371794404208258</v>
       </c>
       <c r="E4">
-        <v>0.01576259807754929</v>
+        <v>-0.01761236109190128</v>
       </c>
       <c r="F4">
-        <v>0.01909567222189181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07524600496118156</v>
+      </c>
+      <c r="G4">
+        <v>-0.03244448991329798</v>
+      </c>
+      <c r="H4">
+        <v>0.009745322809450525</v>
+      </c>
+      <c r="I4">
+        <v>-0.08147489544265887</v>
+      </c>
+      <c r="J4">
+        <v>0.01833158426797502</v>
+      </c>
+      <c r="K4">
+        <v>-0.04553138422799966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1227290635810892</v>
+        <v>0.1322600883622433</v>
       </c>
       <c r="C6">
-        <v>0.0009759604266743506</v>
+        <v>-0.008803699785939291</v>
       </c>
       <c r="D6">
-        <v>0.0448460113360261</v>
+        <v>-0.06141649329487644</v>
       </c>
       <c r="E6">
-        <v>0.07342777995938177</v>
+        <v>-0.01906418650877091</v>
       </c>
       <c r="F6">
-        <v>0.04693040546125338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.04061781895140266</v>
+      </c>
+      <c r="G6">
+        <v>-0.06891349292718851</v>
+      </c>
+      <c r="H6">
+        <v>-0.1932558621271523</v>
+      </c>
+      <c r="I6">
+        <v>-0.08865364724468554</v>
+      </c>
+      <c r="J6">
+        <v>0.4383462390856834</v>
+      </c>
+      <c r="K6">
+        <v>0.00533884137450595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.07345728447935726</v>
+        <v>0.07191403149610123</v>
       </c>
       <c r="C7">
-        <v>0.01802469167204017</v>
+        <v>-0.05144334775032149</v>
       </c>
       <c r="D7">
-        <v>0.05754612997479361</v>
+        <v>-0.04849871147666521</v>
       </c>
       <c r="E7">
-        <v>0.05528515367877541</v>
+        <v>-0.02486198042615974</v>
       </c>
       <c r="F7">
-        <v>-0.01095316911772355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.03668378138310148</v>
+      </c>
+      <c r="G7">
+        <v>0.01358036392841777</v>
+      </c>
+      <c r="H7">
+        <v>0.001683605067896417</v>
+      </c>
+      <c r="I7">
+        <v>-0.0310269023043746</v>
+      </c>
+      <c r="J7">
+        <v>-0.06073489346683945</v>
+      </c>
+      <c r="K7">
+        <v>-0.0716908734973434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.03751373765738104</v>
+        <v>0.04064756617312753</v>
       </c>
       <c r="C8">
-        <v>0.04619739812934626</v>
+        <v>-0.02110579292712945</v>
       </c>
       <c r="D8">
-        <v>-0.01318286476052653</v>
+        <v>0.006995842597932398</v>
       </c>
       <c r="E8">
-        <v>0.05886948172947218</v>
+        <v>-0.06270680115460604</v>
       </c>
       <c r="F8">
-        <v>0.0410395391918092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.04152843999429966</v>
+      </c>
+      <c r="G8">
+        <v>-0.05670399987675507</v>
+      </c>
+      <c r="H8">
+        <v>-0.01215959847908612</v>
+      </c>
+      <c r="I8">
+        <v>-0.107631393813349</v>
+      </c>
+      <c r="J8">
+        <v>-0.006572098071488166</v>
+      </c>
+      <c r="K8">
+        <v>-0.033706872557559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.07878310038014458</v>
+        <v>0.08665143499873207</v>
       </c>
       <c r="C9">
-        <v>0.0582508306306769</v>
+        <v>-0.05165443445160722</v>
       </c>
       <c r="D9">
-        <v>0.04067148279914013</v>
+        <v>-0.03137653412438631</v>
       </c>
       <c r="E9">
-        <v>0.02118770332153264</v>
+        <v>-0.0131818371137347</v>
       </c>
       <c r="F9">
-        <v>0.01373914498054774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.06026911163959335</v>
+      </c>
+      <c r="G9">
+        <v>-0.03983450992641687</v>
+      </c>
+      <c r="H9">
+        <v>0.01064264349928035</v>
+      </c>
+      <c r="I9">
+        <v>-0.09161546357400283</v>
+      </c>
+      <c r="J9">
+        <v>0.01047463177399005</v>
+      </c>
+      <c r="K9">
+        <v>-0.02328912204105573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.01666638214824498</v>
+        <v>0.07005352150636562</v>
       </c>
       <c r="C10">
-        <v>-0.1638030252857771</v>
+        <v>0.1950411492009972</v>
       </c>
       <c r="D10">
-        <v>0.000339467570830645</v>
+        <v>-0.01063317174898107</v>
       </c>
       <c r="E10">
-        <v>0.07631676071023924</v>
+        <v>-0.04292468428680088</v>
       </c>
       <c r="F10">
-        <v>0.04671157760430768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04015495208676059</v>
+      </c>
+      <c r="G10">
+        <v>0.04850036262312111</v>
+      </c>
+      <c r="H10">
+        <v>-0.02476565862492992</v>
+      </c>
+      <c r="I10">
+        <v>0.03422344436991468</v>
+      </c>
+      <c r="J10">
+        <v>-0.0085253924566621</v>
+      </c>
+      <c r="K10">
+        <v>0.01503259528080327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07139874405115823</v>
+        <v>0.0739911342742943</v>
       </c>
       <c r="C11">
-        <v>0.06123549213505881</v>
+        <v>-0.05901022842390429</v>
       </c>
       <c r="D11">
-        <v>0.03237257413392877</v>
+        <v>-0.03278007578980319</v>
       </c>
       <c r="E11">
-        <v>0.03787047355409553</v>
+        <v>-0.01933789903710472</v>
       </c>
       <c r="F11">
-        <v>-0.007792248163421041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02678193436370763</v>
+      </c>
+      <c r="G11">
+        <v>-0.05757729465537783</v>
+      </c>
+      <c r="H11">
+        <v>0.02797627155363721</v>
+      </c>
+      <c r="I11">
+        <v>-0.06526454559034643</v>
+      </c>
+      <c r="J11">
+        <v>-0.06296817444562894</v>
+      </c>
+      <c r="K11">
+        <v>0.04794365259270721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.06994437157908207</v>
+        <v>0.07306738558958319</v>
       </c>
       <c r="C12">
-        <v>0.04692969648416245</v>
+        <v>-0.04870883413490782</v>
       </c>
       <c r="D12">
-        <v>0.03934108709197107</v>
+        <v>-0.02421364094283948</v>
       </c>
       <c r="E12">
-        <v>0.03144377559860289</v>
+        <v>-0.01196284978088913</v>
       </c>
       <c r="F12">
-        <v>-0.001174232538435817</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.038738793001195</v>
+      </c>
+      <c r="G12">
+        <v>-0.04336325413188861</v>
+      </c>
+      <c r="H12">
+        <v>0.005513593364595901</v>
+      </c>
+      <c r="I12">
+        <v>-0.08164050349859173</v>
+      </c>
+      <c r="J12">
+        <v>-0.06899717566989018</v>
+      </c>
+      <c r="K12">
+        <v>0.02420362106964479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.08074815528862678</v>
+        <v>0.0690097370546647</v>
       </c>
       <c r="C13">
-        <v>0.03184030526999419</v>
+        <v>-0.03586838832580223</v>
       </c>
       <c r="D13">
-        <v>0.02962099715083228</v>
+        <v>0.01173984602552397</v>
       </c>
       <c r="E13">
-        <v>0.02045000534726852</v>
+        <v>-0.01504646479825085</v>
       </c>
       <c r="F13">
-        <v>0.005301638258970113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0447992476541639</v>
+      </c>
+      <c r="G13">
+        <v>-0.01562757569147357</v>
+      </c>
+      <c r="H13">
+        <v>0.006631166954917723</v>
+      </c>
+      <c r="I13">
+        <v>-0.07112255097236952</v>
+      </c>
+      <c r="J13">
+        <v>-0.05396227907092448</v>
+      </c>
+      <c r="K13">
+        <v>-0.1088476963695258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.03644030677004916</v>
+        <v>0.04484925507903268</v>
       </c>
       <c r="C14">
-        <v>-0.005479736463409143</v>
+        <v>-0.00870350359934839</v>
       </c>
       <c r="D14">
-        <v>0.03364319146001978</v>
+        <v>-0.03336639740085137</v>
       </c>
       <c r="E14">
-        <v>0.01036543363582536</v>
+        <v>0.0001522579917193123</v>
       </c>
       <c r="F14">
-        <v>0.01475316308485055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03299216306359449</v>
+      </c>
+      <c r="G14">
+        <v>-0.02605485873031165</v>
+      </c>
+      <c r="H14">
+        <v>0.05114077757525622</v>
+      </c>
+      <c r="I14">
+        <v>-0.06667634517149287</v>
+      </c>
+      <c r="J14">
+        <v>0.02092925088526899</v>
+      </c>
+      <c r="K14">
+        <v>-0.0406874581706626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.05607284058359707</v>
+        <v>0.04384902852089646</v>
       </c>
       <c r="C15">
-        <v>0.01522212972933018</v>
+        <v>-0.01444621422837409</v>
       </c>
       <c r="D15">
-        <v>0.01101656250848714</v>
+        <v>0.009189055917951716</v>
       </c>
       <c r="E15">
-        <v>0.008568745962596264</v>
+        <v>0.004672090861389307</v>
       </c>
       <c r="F15">
-        <v>0.02908801254119473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03141754236806233</v>
+      </c>
+      <c r="G15">
+        <v>-0.007656511196625122</v>
+      </c>
+      <c r="H15">
+        <v>0.004704674442038028</v>
+      </c>
+      <c r="I15">
+        <v>-0.04128104691017256</v>
+      </c>
+      <c r="J15">
+        <v>0.03670364844456339</v>
+      </c>
+      <c r="K15">
+        <v>-0.07327218091189591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.06307355785377405</v>
+        <v>0.07503979091882944</v>
       </c>
       <c r="C16">
-        <v>0.06168860696783389</v>
+        <v>-0.05918777319647534</v>
       </c>
       <c r="D16">
-        <v>0.03597675688355433</v>
+        <v>-0.03080332393588463</v>
       </c>
       <c r="E16">
-        <v>0.02652292352256467</v>
+        <v>-0.01121365650353863</v>
       </c>
       <c r="F16">
-        <v>0.01236382448154772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04071752152151559</v>
+      </c>
+      <c r="G16">
+        <v>-0.0356753682305166</v>
+      </c>
+      <c r="H16">
+        <v>0.02348442306551192</v>
+      </c>
+      <c r="I16">
+        <v>-0.05479407116527255</v>
+      </c>
+      <c r="J16">
+        <v>-0.04554948611625405</v>
+      </c>
+      <c r="K16">
+        <v>0.02913604064768543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.06613251107713786</v>
+        <v>0.06104928641661954</v>
       </c>
       <c r="C20">
-        <v>0.04869162153499623</v>
+        <v>-0.03463069656825971</v>
       </c>
       <c r="D20">
-        <v>0.01606442539503394</v>
+        <v>-0.02003353034468083</v>
       </c>
       <c r="E20">
-        <v>0.02888699208768288</v>
+        <v>-0.01477315136709747</v>
       </c>
       <c r="F20">
-        <v>0.007331411314209857</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0102482975053929</v>
+      </c>
+      <c r="G20">
+        <v>-0.03483733145946519</v>
+      </c>
+      <c r="H20">
+        <v>0.03054995625447868</v>
+      </c>
+      <c r="I20">
+        <v>-0.1201924183916298</v>
+      </c>
+      <c r="J20">
+        <v>-0.03524674044604102</v>
+      </c>
+      <c r="K20">
+        <v>-0.04003614517006593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.03859197442778076</v>
+        <v>0.0306472913804393</v>
       </c>
       <c r="C21">
-        <v>0.02175388541691711</v>
+        <v>-0.02382763264302717</v>
       </c>
       <c r="D21">
-        <v>-0.02689067217424779</v>
+        <v>0.02890547469571688</v>
       </c>
       <c r="E21">
-        <v>0.01211704125487503</v>
+        <v>-0.006481680240342117</v>
       </c>
       <c r="F21">
-        <v>0.04747586934953672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01057323891894328</v>
+      </c>
+      <c r="G21">
+        <v>-0.009242123812171642</v>
+      </c>
+      <c r="H21">
+        <v>-0.05793197778627525</v>
+      </c>
+      <c r="I21">
+        <v>-0.06462095022827929</v>
+      </c>
+      <c r="J21">
+        <v>0.03758104611988817</v>
+      </c>
+      <c r="K21">
+        <v>-0.06360509813246054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1204044769806481</v>
+        <v>0.09419320508482319</v>
       </c>
       <c r="C22">
-        <v>0.1153794862442611</v>
+        <v>-0.07965102371718198</v>
       </c>
       <c r="D22">
-        <v>-0.02894087745058065</v>
+        <v>0.3592354826667274</v>
       </c>
       <c r="E22">
-        <v>-0.002067969761839496</v>
+        <v>-0.03961872216265859</v>
       </c>
       <c r="F22">
-        <v>0.3612327676106226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.4408218023882073</v>
+      </c>
+      <c r="G22">
+        <v>0.2769778023944692</v>
+      </c>
+      <c r="H22">
+        <v>-0.05689694943794379</v>
+      </c>
+      <c r="I22">
+        <v>0.2167711419483428</v>
+      </c>
+      <c r="J22">
+        <v>0.02826827448490623</v>
+      </c>
+      <c r="K22">
+        <v>0.03462809711186405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1214110608348386</v>
+        <v>0.09514982096499655</v>
       </c>
       <c r="C23">
-        <v>0.1146909607331664</v>
+        <v>-0.07992172177037719</v>
       </c>
       <c r="D23">
-        <v>-0.02701436350953713</v>
+        <v>0.3591434439917499</v>
       </c>
       <c r="E23">
-        <v>-0.001159823303445119</v>
+        <v>-0.04011255723090826</v>
       </c>
       <c r="F23">
-        <v>0.3637563946458665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.4455471442114965</v>
+      </c>
+      <c r="G23">
+        <v>0.2723215185001428</v>
+      </c>
+      <c r="H23">
+        <v>-0.05519339943440513</v>
+      </c>
+      <c r="I23">
+        <v>0.2168286351079316</v>
+      </c>
+      <c r="J23">
+        <v>0.03425697821867531</v>
+      </c>
+      <c r="K23">
+        <v>0.03558124860654095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0835790377950416</v>
+        <v>0.08394349169005515</v>
       </c>
       <c r="C24">
-        <v>0.05802582949069186</v>
+        <v>-0.05709739632650963</v>
       </c>
       <c r="D24">
-        <v>0.02860400728185851</v>
+        <v>-0.02044473172584852</v>
       </c>
       <c r="E24">
-        <v>0.04136913080322302</v>
+        <v>-0.02213266805562079</v>
       </c>
       <c r="F24">
-        <v>0.0194298512322448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04361755267701804</v>
+      </c>
+      <c r="G24">
+        <v>-0.05518388122944666</v>
+      </c>
+      <c r="H24">
+        <v>0.008117355221023288</v>
+      </c>
+      <c r="I24">
+        <v>-0.07090097981512158</v>
+      </c>
+      <c r="J24">
+        <v>-0.04146966072932536</v>
+      </c>
+      <c r="K24">
+        <v>0.03839756741398545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07976470131174238</v>
+        <v>0.07826945602114856</v>
       </c>
       <c r="C25">
-        <v>0.04970897393696388</v>
+        <v>-0.04536533394927326</v>
       </c>
       <c r="D25">
-        <v>0.04736284712316073</v>
+        <v>-0.03363502180929615</v>
       </c>
       <c r="E25">
-        <v>0.04936730027690055</v>
+        <v>-0.01471077683772043</v>
       </c>
       <c r="F25">
-        <v>0.03084417408809643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.05222753066907478</v>
+      </c>
+      <c r="G25">
+        <v>-0.0470800336993027</v>
+      </c>
+      <c r="H25">
+        <v>0.02085634893693774</v>
+      </c>
+      <c r="I25">
+        <v>-0.08514448437478381</v>
+      </c>
+      <c r="J25">
+        <v>-0.04985158475621908</v>
+      </c>
+      <c r="K25">
+        <v>0.04875873671704994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05165784013901636</v>
+        <v>0.04637265230237457</v>
       </c>
       <c r="C26">
-        <v>0.01148055987565791</v>
+        <v>-0.02286753306348391</v>
       </c>
       <c r="D26">
-        <v>0.0009841668518537361</v>
+        <v>0.01253790228557293</v>
       </c>
       <c r="E26">
-        <v>0.0366036040849827</v>
+        <v>-0.008495247095459367</v>
       </c>
       <c r="F26">
-        <v>-0.01705128718878923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01835914673113513</v>
+      </c>
+      <c r="G26">
+        <v>-0.0186561597014966</v>
+      </c>
+      <c r="H26">
+        <v>0.02445954050138141</v>
+      </c>
+      <c r="I26">
+        <v>-0.04102674882168419</v>
+      </c>
+      <c r="J26">
+        <v>0.01527305434747601</v>
+      </c>
+      <c r="K26">
+        <v>-0.1224769097982324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.04747433375082123</v>
+        <v>0.08822571908404825</v>
       </c>
       <c r="C28">
-        <v>-0.2997002555387295</v>
+        <v>0.2974222485833847</v>
       </c>
       <c r="D28">
-        <v>0.004458843507430504</v>
+        <v>0.008326180269130467</v>
       </c>
       <c r="E28">
-        <v>0.07780178128380118</v>
+        <v>-0.02424326008659391</v>
       </c>
       <c r="F28">
-        <v>0.005118833998101138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01625451806929868</v>
+      </c>
+      <c r="G28">
+        <v>-0.01213905695959533</v>
+      </c>
+      <c r="H28">
+        <v>-0.0432922684454575</v>
+      </c>
+      <c r="I28">
+        <v>0.02715710526315886</v>
+      </c>
+      <c r="J28">
+        <v>0.004315174174278384</v>
+      </c>
+      <c r="K28">
+        <v>-0.05763450652755527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05830157658720162</v>
+        <v>0.05462367084686305</v>
       </c>
       <c r="C29">
-        <v>0.0008678341695953383</v>
+        <v>-0.01095368528219169</v>
       </c>
       <c r="D29">
-        <v>0.03100582000563837</v>
+        <v>-0.02126959662920469</v>
       </c>
       <c r="E29">
-        <v>0.02297025908555506</v>
+        <v>-0.01607412459989374</v>
       </c>
       <c r="F29">
-        <v>0.02876494428026101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03723391053006923</v>
+      </c>
+      <c r="G29">
+        <v>-0.02348673816641363</v>
+      </c>
+      <c r="H29">
+        <v>0.06363122913564564</v>
+      </c>
+      <c r="I29">
+        <v>-0.04602049133700545</v>
+      </c>
+      <c r="J29">
+        <v>0.009805642586709884</v>
+      </c>
+      <c r="K29">
+        <v>-0.03788825370133805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1507323073577329</v>
+        <v>0.1302160379844104</v>
       </c>
       <c r="C30">
-        <v>0.06528764728706596</v>
+        <v>-0.05365766188989485</v>
       </c>
       <c r="D30">
-        <v>0.06527506519994777</v>
+        <v>-0.01523032238355501</v>
       </c>
       <c r="E30">
-        <v>0.05947750817657604</v>
+        <v>-0.02988195178771786</v>
       </c>
       <c r="F30">
-        <v>0.03680025202296144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1180932420612691</v>
+      </c>
+      <c r="G30">
+        <v>-0.07449392288018175</v>
+      </c>
+      <c r="H30">
+        <v>-0.08169684051985653</v>
+      </c>
+      <c r="I30">
+        <v>-0.2422445421003208</v>
+      </c>
+      <c r="J30">
+        <v>-0.1661755813438328</v>
+      </c>
+      <c r="K30">
+        <v>-0.2518812217708914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.06016966393998582</v>
+        <v>0.04825293613104759</v>
       </c>
       <c r="C31">
-        <v>0.01850306961362223</v>
+        <v>-0.03761329269610648</v>
       </c>
       <c r="D31">
-        <v>0.0258288178388877</v>
+        <v>-0.001813264595117998</v>
       </c>
       <c r="E31">
-        <v>0.003705396735988983</v>
+        <v>0.00728053360110983</v>
       </c>
       <c r="F31">
-        <v>-0.01126958270192742</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01848290215604674</v>
+      </c>
+      <c r="G31">
+        <v>0.01011326467247356</v>
+      </c>
+      <c r="H31">
+        <v>0.05456225549302279</v>
+      </c>
+      <c r="I31">
+        <v>-0.04487091883083776</v>
+      </c>
+      <c r="J31">
+        <v>0.01291468316047929</v>
+      </c>
+      <c r="K31">
+        <v>-0.01981189835401402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04736106094453695</v>
+        <v>0.05147147101535834</v>
       </c>
       <c r="C32">
-        <v>0.009601408641890194</v>
+        <v>0.005993903732522483</v>
       </c>
       <c r="D32">
-        <v>0.01153718221590047</v>
+        <v>0.02588277494570652</v>
       </c>
       <c r="E32">
-        <v>-0.005584040239170271</v>
+        <v>0.009759471669699735</v>
       </c>
       <c r="F32">
-        <v>0.04797688918950958</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.06654550341696343</v>
+      </c>
+      <c r="G32">
+        <v>0.003888730019523524</v>
+      </c>
+      <c r="H32">
+        <v>0.001312669951187616</v>
+      </c>
+      <c r="I32">
+        <v>0.02118476470717381</v>
+      </c>
+      <c r="J32">
+        <v>-0.05291530267062497</v>
+      </c>
+      <c r="K32">
+        <v>-0.1305467600377812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1024791505380072</v>
+        <v>0.1058586273544909</v>
       </c>
       <c r="C33">
-        <v>0.0282807366392779</v>
+        <v>-0.0454290029530279</v>
       </c>
       <c r="D33">
-        <v>0.03616837674229972</v>
+        <v>-0.01180366572659392</v>
       </c>
       <c r="E33">
-        <v>0.01077467534745381</v>
+        <v>0.01742637932987861</v>
       </c>
       <c r="F33">
-        <v>-0.02247385129989061</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03166831680550706</v>
+      </c>
+      <c r="G33">
+        <v>-0.01386450486508029</v>
+      </c>
+      <c r="H33">
+        <v>0.0312324784696437</v>
+      </c>
+      <c r="I33">
+        <v>-0.07408229435084927</v>
+      </c>
+      <c r="J33">
+        <v>-0.005522031398599116</v>
+      </c>
+      <c r="K33">
+        <v>-0.02312111572167305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.0639488931289091</v>
+        <v>0.06984063368917241</v>
       </c>
       <c r="C34">
-        <v>0.05942503061846028</v>
+        <v>-0.0482477669997464</v>
       </c>
       <c r="D34">
-        <v>0.02393040518594819</v>
+        <v>-0.02166667556542874</v>
       </c>
       <c r="E34">
-        <v>0.0266618565926868</v>
+        <v>-0.01111367362498636</v>
       </c>
       <c r="F34">
-        <v>0.03183497667689924</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03176725407604901</v>
+      </c>
+      <c r="G34">
+        <v>-0.04199551863014055</v>
+      </c>
+      <c r="H34">
+        <v>0.02986376927286152</v>
+      </c>
+      <c r="I34">
+        <v>-0.06702524776596465</v>
+      </c>
+      <c r="J34">
+        <v>-0.02781297286124459</v>
+      </c>
+      <c r="K34">
+        <v>0.052270120412517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04089512692686761</v>
+        <v>0.03530738770217772</v>
       </c>
       <c r="C35">
-        <v>0.008117472593247986</v>
+        <v>-0.01873480728568194</v>
       </c>
       <c r="D35">
-        <v>0.01462962154462963</v>
+        <v>-0.01033603372471217</v>
       </c>
       <c r="E35">
-        <v>0.003086083955431604</v>
+        <v>0.009149351634115448</v>
       </c>
       <c r="F35">
-        <v>0.007733650638497059</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01226873751967582</v>
+      </c>
+      <c r="G35">
+        <v>0.009361819072868656</v>
+      </c>
+      <c r="H35">
+        <v>0.02405282873212138</v>
+      </c>
+      <c r="I35">
+        <v>-0.06250551485373992</v>
+      </c>
+      <c r="J35">
+        <v>-0.02303991791593381</v>
+      </c>
+      <c r="K35">
+        <v>-0.009889856331465255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03876185617596026</v>
+        <v>0.0346865421083787</v>
       </c>
       <c r="C36">
-        <v>0.0143886489560035</v>
+        <v>-0.01236401838670074</v>
       </c>
       <c r="D36">
-        <v>0.01609838942755091</v>
+        <v>-0.002462471603652958</v>
       </c>
       <c r="E36">
-        <v>0.03243468571428979</v>
+        <v>-0.01658161269716572</v>
       </c>
       <c r="F36">
-        <v>0.007837860407508928</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.03545778643924046</v>
+      </c>
+      <c r="G36">
+        <v>-0.02062966396919237</v>
+      </c>
+      <c r="H36">
+        <v>0.01573169139456517</v>
+      </c>
+      <c r="I36">
+        <v>-0.07281105708644081</v>
+      </c>
+      <c r="J36">
+        <v>-0.01346541502543529</v>
+      </c>
+      <c r="K36">
+        <v>-0.04378669355288045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06613042300155023</v>
+        <v>0.05028231952807113</v>
       </c>
       <c r="C38">
-        <v>0.01201443477856016</v>
+        <v>-0.04630611302485162</v>
       </c>
       <c r="D38">
-        <v>-0.02135126541314428</v>
+        <v>0.04432146403766684</v>
       </c>
       <c r="E38">
-        <v>-0.01252581196419764</v>
+        <v>-0.01561514187809156</v>
       </c>
       <c r="F38">
-        <v>0.06081466126299451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-5.419828585627005e-05</v>
+      </c>
+      <c r="G38">
+        <v>0.002561502816352014</v>
+      </c>
+      <c r="H38">
+        <v>-0.004987467318629498</v>
+      </c>
+      <c r="I38">
+        <v>0.09235854189107655</v>
+      </c>
+      <c r="J38">
+        <v>-0.01899599792442479</v>
+      </c>
+      <c r="K38">
+        <v>-0.0702003766612054</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.09522072579448733</v>
+        <v>0.1002074115579926</v>
       </c>
       <c r="C39">
-        <v>0.04758251375854679</v>
+        <v>-0.05224421805411097</v>
       </c>
       <c r="D39">
-        <v>0.03854023872187125</v>
+        <v>-0.0257202062636027</v>
       </c>
       <c r="E39">
-        <v>0.005296985491113746</v>
+        <v>-0.00606369829219843</v>
       </c>
       <c r="F39">
-        <v>0.02470392830175406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04109748656722306</v>
+      </c>
+      <c r="G39">
+        <v>-0.04050434492501262</v>
+      </c>
+      <c r="H39">
+        <v>0.008823746010651267</v>
+      </c>
+      <c r="I39">
+        <v>-0.06955298629819232</v>
+      </c>
+      <c r="J39">
+        <v>-0.1624583166551588</v>
+      </c>
+      <c r="K39">
+        <v>0.01009582702569457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.07374813785238397</v>
+        <v>0.04562825919454157</v>
       </c>
       <c r="C40">
-        <v>0.01468676309058343</v>
+        <v>-0.04150260887263953</v>
       </c>
       <c r="D40">
-        <v>0.0264154064392352</v>
+        <v>0.04961121263911478</v>
       </c>
       <c r="E40">
-        <v>0.0153065764236621</v>
+        <v>0.004441651677283519</v>
       </c>
       <c r="F40">
-        <v>0.1005722785622663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.06069922642520312</v>
+      </c>
+      <c r="G40">
+        <v>-0.08112388748711412</v>
+      </c>
+      <c r="H40">
+        <v>-0.09262203798622315</v>
+      </c>
+      <c r="I40">
+        <v>-0.07104783601269522</v>
+      </c>
+      <c r="J40">
+        <v>-0.28050276725869</v>
+      </c>
+      <c r="K40">
+        <v>-0.07816921109781227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.06232492424972222</v>
+        <v>0.04832364287997117</v>
       </c>
       <c r="C41">
-        <v>0.0271025845718983</v>
+        <v>-0.03138623465844757</v>
       </c>
       <c r="D41">
-        <v>0.007879946424513697</v>
+        <v>-0.009915502985965028</v>
       </c>
       <c r="E41">
-        <v>-0.005608018979536782</v>
+        <v>-0.001173679198103175</v>
       </c>
       <c r="F41">
-        <v>0.006358024542031626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.02096513263982</v>
+      </c>
+      <c r="G41">
+        <v>-0.01886097934153347</v>
+      </c>
+      <c r="H41">
+        <v>0.03383639761405374</v>
+      </c>
+      <c r="I41">
+        <v>-0.003347199653820031</v>
+      </c>
+      <c r="J41">
+        <v>-0.03758006134792565</v>
+      </c>
+      <c r="K41">
+        <v>-0.03608324505154205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.06529945496470516</v>
+        <v>0.06222127888284501</v>
       </c>
       <c r="C43">
-        <v>0.01714117393066448</v>
+        <v>-0.03522151399013911</v>
       </c>
       <c r="D43">
-        <v>0.01573939916798822</v>
+        <v>-0.009383068565481286</v>
       </c>
       <c r="E43">
-        <v>0.02105985552930619</v>
+        <v>-0.02182451639315011</v>
       </c>
       <c r="F43">
-        <v>-0.003757220821844666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01226093432408432</v>
+      </c>
+      <c r="G43">
+        <v>-0.007311640844811176</v>
+      </c>
+      <c r="H43">
+        <v>0.05888833277310641</v>
+      </c>
+      <c r="I43">
+        <v>-0.01212840662460806</v>
+      </c>
+      <c r="J43">
+        <v>-0.01672177730300174</v>
+      </c>
+      <c r="K43">
+        <v>-0.006433270747210094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.09260145609704924</v>
+        <v>0.09482285124706118</v>
       </c>
       <c r="C44">
-        <v>0.05192611762675458</v>
+        <v>-0.05342712168014691</v>
       </c>
       <c r="D44">
-        <v>0.0100237257319252</v>
+        <v>0.01173766338543007</v>
       </c>
       <c r="E44">
-        <v>0.08500127689277266</v>
+        <v>-0.08458696927969026</v>
       </c>
       <c r="F44">
-        <v>0.1066234583246858</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1003824156362118</v>
+      </c>
+      <c r="G44">
+        <v>-0.08089354249568867</v>
+      </c>
+      <c r="H44">
+        <v>0.05967642930429738</v>
+      </c>
+      <c r="I44">
+        <v>-0.1379612360362507</v>
+      </c>
+      <c r="J44">
+        <v>-0.08852646417613137</v>
+      </c>
+      <c r="K44">
+        <v>-0.01174098390610838</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.03332580696972114</v>
+        <v>0.04786308143375964</v>
       </c>
       <c r="C46">
-        <v>0.03209525339966302</v>
+        <v>-0.02981577605681609</v>
       </c>
       <c r="D46">
-        <v>0.01452826785258697</v>
+        <v>-0.01331297239331717</v>
       </c>
       <c r="E46">
-        <v>0.01921260306162392</v>
+        <v>-0.02152326645181613</v>
       </c>
       <c r="F46">
-        <v>0.04786507845589451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04467895712463271</v>
+      </c>
+      <c r="G46">
+        <v>-0.003766686517322357</v>
+      </c>
+      <c r="H46">
+        <v>0.02176646854483796</v>
+      </c>
+      <c r="I46">
+        <v>-0.04237045759728759</v>
+      </c>
+      <c r="J46">
+        <v>0.02843641002454407</v>
+      </c>
+      <c r="K46">
+        <v>-0.03926638656978663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.03928635638441995</v>
+        <v>0.04754958764104444</v>
       </c>
       <c r="C47">
-        <v>-0.006191121313468497</v>
+        <v>-0.009096363886243592</v>
       </c>
       <c r="D47">
-        <v>0.008675500643591098</v>
+        <v>0.00957104137301186</v>
       </c>
       <c r="E47">
-        <v>0.01474296860290167</v>
+        <v>0.003643413849237623</v>
       </c>
       <c r="F47">
-        <v>0.06237496890208269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03991721356591418</v>
+      </c>
+      <c r="G47">
+        <v>0.01063344865190463</v>
+      </c>
+      <c r="H47">
+        <v>0.01750183499693819</v>
+      </c>
+      <c r="I47">
+        <v>-0.03457150107742402</v>
+      </c>
+      <c r="J47">
+        <v>0.02447665350924075</v>
+      </c>
+      <c r="K47">
+        <v>-0.001056972522165716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.05057115347567547</v>
+        <v>0.04427373960049567</v>
       </c>
       <c r="C48">
-        <v>0.01975133964861249</v>
+        <v>-0.01425723820533728</v>
       </c>
       <c r="D48">
-        <v>0.0275229255260281</v>
+        <v>0.005818658253787407</v>
       </c>
       <c r="E48">
-        <v>0.02335918607171767</v>
+        <v>0.004594694290084016</v>
       </c>
       <c r="F48">
-        <v>0.02443459798510993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04217719823366271</v>
+      </c>
+      <c r="G48">
+        <v>-0.002774229925735445</v>
+      </c>
+      <c r="H48">
+        <v>-0.007732901264501809</v>
+      </c>
+      <c r="I48">
+        <v>-0.0622147612836092</v>
+      </c>
+      <c r="J48">
+        <v>-0.0009330119699293579</v>
+      </c>
+      <c r="K48">
+        <v>-0.0549754537508127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.1470290721481131</v>
+        <v>0.2043292356247154</v>
       </c>
       <c r="C49">
-        <v>0.009542741489253728</v>
+        <v>-0.02113479244475891</v>
       </c>
       <c r="D49">
-        <v>0.07507546063205604</v>
+        <v>-0.1681009221463094</v>
       </c>
       <c r="E49">
-        <v>0.03635272751649821</v>
+        <v>-0.004786966838811228</v>
       </c>
       <c r="F49">
-        <v>-0.1142452785779129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.08800845113943491</v>
+      </c>
+      <c r="G49">
+        <v>0.1301934961062413</v>
+      </c>
+      <c r="H49">
+        <v>-0.1919330011652488</v>
+      </c>
+      <c r="I49">
+        <v>0.131014657158798</v>
+      </c>
+      <c r="J49">
+        <v>-0.05677750623678544</v>
+      </c>
+      <c r="K49">
+        <v>0.23907515510738</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.06725883517180214</v>
+        <v>0.05652171256774044</v>
       </c>
       <c r="C50">
-        <v>0.02525682322330269</v>
+        <v>-0.03528217482113249</v>
       </c>
       <c r="D50">
-        <v>0.03347986446635912</v>
+        <v>-0.01004899390816585</v>
       </c>
       <c r="E50">
-        <v>0.005290219517497311</v>
+        <v>0.01737501236622685</v>
       </c>
       <c r="F50">
-        <v>0.007464943145491692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0324111991598694</v>
+      </c>
+      <c r="G50">
+        <v>-0.008740155522310989</v>
+      </c>
+      <c r="H50">
+        <v>0.05857672519957641</v>
+      </c>
+      <c r="I50">
+        <v>-0.04271639016605092</v>
+      </c>
+      <c r="J50">
+        <v>0.03137144153099089</v>
+      </c>
+      <c r="K50">
+        <v>-0.03723890314573214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03700065729414455</v>
+        <v>0.04059304115204167</v>
       </c>
       <c r="C51">
-        <v>-0.006781237977730161</v>
+        <v>0.001360751090560177</v>
       </c>
       <c r="D51">
-        <v>-0.01536247988456795</v>
+        <v>0.01224856074198256</v>
       </c>
       <c r="E51">
-        <v>0.005240532450737059</v>
+        <v>-0.0288130250177927</v>
       </c>
       <c r="F51">
-        <v>0.0143104102055504</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02663988561551119</v>
+      </c>
+      <c r="G51">
+        <v>0.01256468764458132</v>
+      </c>
+      <c r="H51">
+        <v>-0.01796180839291409</v>
+      </c>
+      <c r="I51">
+        <v>0.01165955906312031</v>
+      </c>
+      <c r="J51">
+        <v>-0.03967741091615043</v>
+      </c>
+      <c r="K51">
+        <v>0.06997510966467219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1537277877356395</v>
+        <v>0.155425436804261</v>
       </c>
       <c r="C53">
-        <v>-0.0287227846338358</v>
+        <v>-0.01339059055076696</v>
       </c>
       <c r="D53">
-        <v>0.07198825416572978</v>
+        <v>-0.0705225499818181</v>
       </c>
       <c r="E53">
-        <v>0.003540958611341778</v>
+        <v>0.01440517945178066</v>
       </c>
       <c r="F53">
-        <v>-0.04057644110550945</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01307839765251873</v>
+      </c>
+      <c r="G53">
+        <v>0.03690391850452458</v>
+      </c>
+      <c r="H53">
+        <v>0.2300186889490794</v>
+      </c>
+      <c r="I53">
+        <v>0.06369784885678681</v>
+      </c>
+      <c r="J53">
+        <v>0.04991011742941995</v>
+      </c>
+      <c r="K53">
+        <v>0.04543101336494955</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.06555649616806405</v>
+        <v>0.06439868439589645</v>
       </c>
       <c r="C54">
-        <v>0.02018131663099053</v>
+        <v>-0.01249665986530589</v>
       </c>
       <c r="D54">
-        <v>0.006508250285612173</v>
+        <v>0.01329219037614389</v>
       </c>
       <c r="E54">
-        <v>0.03562203074969315</v>
+        <v>-0.02198274218805259</v>
       </c>
       <c r="F54">
-        <v>0.06742485631070609</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.07386694336011139</v>
+      </c>
+      <c r="G54">
+        <v>-0.05955220314561264</v>
+      </c>
+      <c r="H54">
+        <v>0.01684423611776613</v>
+      </c>
+      <c r="I54">
+        <v>-0.1231259956851125</v>
+      </c>
+      <c r="J54">
+        <v>0.0102650241766802</v>
+      </c>
+      <c r="K54">
+        <v>-0.07272895170328014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09553276469125282</v>
+        <v>0.09580943507344215</v>
       </c>
       <c r="C55">
-        <v>0.000170933924835298</v>
+        <v>-0.02502258082793852</v>
       </c>
       <c r="D55">
-        <v>0.05130194447766013</v>
+        <v>-0.04901860223380203</v>
       </c>
       <c r="E55">
-        <v>0.02215400777194689</v>
+        <v>-0.007888717254790255</v>
       </c>
       <c r="F55">
-        <v>0.009795059981512061</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.007636926773759625</v>
+      </c>
+      <c r="G55">
+        <v>-0.01904021514530664</v>
+      </c>
+      <c r="H55">
+        <v>0.1809022830959745</v>
+      </c>
+      <c r="I55">
+        <v>-0.01092115712846162</v>
+      </c>
+      <c r="J55">
+        <v>0.03150529808506757</v>
+      </c>
+      <c r="K55">
+        <v>0.03942118440980825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1539578395881238</v>
+        <v>0.1526495288526683</v>
       </c>
       <c r="C56">
-        <v>-0.02525200706433247</v>
+        <v>-0.03271450399327161</v>
       </c>
       <c r="D56">
-        <v>0.08865541391924234</v>
+        <v>-0.07211590434836516</v>
       </c>
       <c r="E56">
-        <v>0.0416857025760313</v>
+        <v>-0.001256825940271143</v>
       </c>
       <c r="F56">
-        <v>-0.04743646116591067</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.007957675600556218</v>
+      </c>
+      <c r="G56">
+        <v>0.01657783142686921</v>
+      </c>
+      <c r="H56">
+        <v>0.23529624962672</v>
+      </c>
+      <c r="I56">
+        <v>0.07588755322491141</v>
+      </c>
+      <c r="J56">
+        <v>0.02707032037281535</v>
+      </c>
+      <c r="K56">
+        <v>0.003121741968052157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2692,1355 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.1161647515384149</v>
+        <v>0.07572059520886877</v>
       </c>
       <c r="C58">
-        <v>0.05608881407685728</v>
+        <v>-0.04692820959456395</v>
       </c>
       <c r="D58">
-        <v>-0.1338147252828233</v>
+        <v>0.1731804878676488</v>
       </c>
       <c r="E58">
-        <v>0.1084322116031078</v>
+        <v>-0.0796575241966283</v>
       </c>
       <c r="F58">
-        <v>0.196401592557151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.007082855163194547</v>
+      </c>
+      <c r="G58">
+        <v>0.1104546557183677</v>
+      </c>
+      <c r="H58">
+        <v>-0.2152635983992128</v>
+      </c>
+      <c r="I58">
+        <v>-0.4992099072986893</v>
+      </c>
+      <c r="J58">
+        <v>-0.127026741964513</v>
+      </c>
+      <c r="K58">
+        <v>0.1748519988652887</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1340271028342366</v>
+        <v>0.1709778114221701</v>
       </c>
       <c r="C59">
-        <v>-0.4430170667758785</v>
+        <v>0.3548766756138522</v>
       </c>
       <c r="D59">
-        <v>-0.01526480315413897</v>
+        <v>0.02741551645229658</v>
       </c>
       <c r="E59">
-        <v>0.08275767681172139</v>
+        <v>-0.03279061431244122</v>
       </c>
       <c r="F59">
-        <v>0.06511922757288666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01955832433113177</v>
+      </c>
+      <c r="G59">
+        <v>-0.02831236712142779</v>
+      </c>
+      <c r="H59">
+        <v>0.04411092852905821</v>
+      </c>
+      <c r="I59">
+        <v>0.05415398277474775</v>
+      </c>
+      <c r="J59">
+        <v>-0.05949064265781532</v>
+      </c>
+      <c r="K59">
+        <v>-0.005838521460907842</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.221322944307412</v>
+        <v>0.2468903017490634</v>
       </c>
       <c r="C60">
-        <v>-0.02066121082463992</v>
+        <v>-0.03840991590225951</v>
       </c>
       <c r="D60">
-        <v>0.07723040578791865</v>
+        <v>-0.1269869892998745</v>
       </c>
       <c r="E60">
-        <v>0.05316603726611823</v>
+        <v>-0.03181654919486076</v>
       </c>
       <c r="F60">
-        <v>-0.01304328962129643</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.0570557265251777</v>
+      </c>
+      <c r="G60">
+        <v>0.01147414583167665</v>
+      </c>
+      <c r="H60">
+        <v>-0.1078560641119617</v>
+      </c>
+      <c r="I60">
+        <v>0.1215126182487131</v>
+      </c>
+      <c r="J60">
+        <v>0.1001413711386993</v>
+      </c>
+      <c r="K60">
+        <v>0.1614326248650057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.07998983546906753</v>
+        <v>0.08934491851863895</v>
       </c>
       <c r="C61">
-        <v>0.02525591427694013</v>
+        <v>-0.03582586743463367</v>
       </c>
       <c r="D61">
-        <v>0.02961753729393667</v>
+        <v>-0.02367387852453392</v>
       </c>
       <c r="E61">
-        <v>0.007883029907672005</v>
+        <v>-0.0150924248100116</v>
       </c>
       <c r="F61">
-        <v>0.005348713246090707</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03174387261334067</v>
+      </c>
+      <c r="G61">
+        <v>-0.0486444010948956</v>
+      </c>
+      <c r="H61">
+        <v>0.06088170787364981</v>
+      </c>
+      <c r="I61">
+        <v>-0.03888236894136933</v>
+      </c>
+      <c r="J61">
+        <v>-0.0835906256259089</v>
+      </c>
+      <c r="K61">
+        <v>0.001221257621848832</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1500204883363064</v>
+        <v>0.1466871605527942</v>
       </c>
       <c r="C62">
-        <v>-0.01898571007370893</v>
+        <v>-0.03799613925772909</v>
       </c>
       <c r="D62">
-        <v>0.04358613448733832</v>
+        <v>-0.05065229447619872</v>
       </c>
       <c r="E62">
-        <v>-0.02010020793788364</v>
+        <v>0.03826182989203913</v>
       </c>
       <c r="F62">
-        <v>-0.0699871347459257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.03222326512929867</v>
+      </c>
+      <c r="G62">
+        <v>-0.007524868910871378</v>
+      </c>
+      <c r="H62">
+        <v>0.2282159326802384</v>
+      </c>
+      <c r="I62">
+        <v>0.06669716505551281</v>
+      </c>
+      <c r="J62">
+        <v>0.09294886598121929</v>
+      </c>
+      <c r="K62">
+        <v>0.004579711614411341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.06221830149053736</v>
+        <v>0.05445486505069508</v>
       </c>
       <c r="C63">
-        <v>0.03068245073061341</v>
+        <v>-0.02242328781124963</v>
       </c>
       <c r="D63">
-        <v>0.02341190881779662</v>
+        <v>-0.007114646782403771</v>
       </c>
       <c r="E63">
-        <v>0.01402963051053744</v>
+        <v>0.01024337930587281</v>
       </c>
       <c r="F63">
-        <v>0.006470385989595297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03359552724739898</v>
+      </c>
+      <c r="G63">
+        <v>-0.04021993786570067</v>
+      </c>
+      <c r="H63">
+        <v>0.01709743409437484</v>
+      </c>
+      <c r="I63">
+        <v>-0.05432672281365759</v>
+      </c>
+      <c r="J63">
+        <v>0.02230054163265305</v>
+      </c>
+      <c r="K63">
+        <v>-0.03601205440345235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.09823264899048424</v>
+        <v>0.105305679702454</v>
       </c>
       <c r="C64">
-        <v>-0.002989633450964778</v>
+        <v>-0.01507361546843704</v>
       </c>
       <c r="D64">
-        <v>0.05966415775423241</v>
+        <v>-0.05209217878041668</v>
       </c>
       <c r="E64">
-        <v>0.03097748068227639</v>
+        <v>-0.02032511688137675</v>
       </c>
       <c r="F64">
-        <v>0.04853257631349521</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.06926015866571979</v>
+      </c>
+      <c r="G64">
+        <v>-0.04477272440801239</v>
+      </c>
+      <c r="H64">
+        <v>-0.02080321716295685</v>
+      </c>
+      <c r="I64">
+        <v>-0.03836430287572387</v>
+      </c>
+      <c r="J64">
+        <v>-0.04921192199347458</v>
+      </c>
+      <c r="K64">
+        <v>-0.02330271670497042</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1238272158614189</v>
+        <v>0.1329888816249632</v>
       </c>
       <c r="C65">
-        <v>0.02728489179074497</v>
+        <v>-0.01219099700258794</v>
       </c>
       <c r="D65">
-        <v>0.03936974451393455</v>
+        <v>-0.05735219377180785</v>
       </c>
       <c r="E65">
-        <v>0.04905216460522428</v>
+        <v>0.008798324902400803</v>
       </c>
       <c r="F65">
-        <v>0.07944911629809052</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.0444749164319747</v>
+      </c>
+      <c r="G65">
+        <v>-0.09053810101659798</v>
+      </c>
+      <c r="H65">
+        <v>-0.2128737652487379</v>
+      </c>
+      <c r="I65">
+        <v>-0.1996520509994499</v>
+      </c>
+      <c r="J65">
+        <v>0.6226904980291667</v>
+      </c>
+      <c r="K65">
+        <v>0.04956752105524828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.158524447475087</v>
+        <v>0.1465044019284699</v>
       </c>
       <c r="C66">
-        <v>0.08086242585995655</v>
+        <v>-0.09525774498342378</v>
       </c>
       <c r="D66">
-        <v>0.05498846015575054</v>
+        <v>-0.0367094081998973</v>
       </c>
       <c r="E66">
-        <v>0.01442508994155551</v>
+        <v>-0.001002311638557071</v>
       </c>
       <c r="F66">
-        <v>-0.02931309609103479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03434406776004582</v>
+      </c>
+      <c r="G66">
+        <v>-0.0766409316081683</v>
+      </c>
+      <c r="H66">
+        <v>0.02947276702963786</v>
+      </c>
+      <c r="I66">
+        <v>-0.06614838013293539</v>
+      </c>
+      <c r="J66">
+        <v>-0.2419416201126555</v>
+      </c>
+      <c r="K66">
+        <v>-0.03709352323696619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.09660699327048664</v>
+        <v>0.0965387942204657</v>
       </c>
       <c r="C67">
-        <v>0.01226951334095097</v>
+        <v>-0.04784211354700926</v>
       </c>
       <c r="D67">
-        <v>-0.0260515008082717</v>
+        <v>0.02109028455874179</v>
       </c>
       <c r="E67">
-        <v>0.009017754182646047</v>
+        <v>-0.04326884684554105</v>
       </c>
       <c r="F67">
-        <v>0.02296927879700925</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02150413117815049</v>
+      </c>
+      <c r="G67">
+        <v>-0.02121192936491324</v>
+      </c>
+      <c r="H67">
+        <v>-0.00507296939949691</v>
+      </c>
+      <c r="I67">
+        <v>0.1274396244149792</v>
+      </c>
+      <c r="J67">
+        <v>-0.04057971318909259</v>
+      </c>
+      <c r="K67">
+        <v>-0.04096534962034301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04437206066295863</v>
+        <v>0.07941765653424708</v>
       </c>
       <c r="C68">
-        <v>-0.2584192384971959</v>
+        <v>0.2796916258005392</v>
       </c>
       <c r="D68">
-        <v>-0.01251767288079866</v>
+        <v>0.027915774989334</v>
       </c>
       <c r="E68">
-        <v>0.04233208394887902</v>
+        <v>-0.01577982562030078</v>
       </c>
       <c r="F68">
-        <v>0.03502187974785096</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03386103077323303</v>
+      </c>
+      <c r="G68">
+        <v>0.01865766004361459</v>
+      </c>
+      <c r="H68">
+        <v>0.01726284738467522</v>
+      </c>
+      <c r="I68">
+        <v>-0.03854981791040868</v>
+      </c>
+      <c r="J68">
+        <v>0.03884121138416233</v>
+      </c>
+      <c r="K68">
+        <v>-0.01917580022111053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.06816953406378322</v>
+        <v>0.05653413475341752</v>
       </c>
       <c r="C69">
-        <v>0.01304126290399082</v>
+        <v>-0.01674726987645543</v>
       </c>
       <c r="D69">
-        <v>-0.0008021479369780468</v>
+        <v>0.01483851194795402</v>
       </c>
       <c r="E69">
-        <v>0.01626924805250407</v>
+        <v>0.005123444494867881</v>
       </c>
       <c r="F69">
-        <v>0.007347222661258868</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0002143687557372762</v>
+      </c>
+      <c r="G69">
+        <v>-0.01508541052908468</v>
+      </c>
+      <c r="H69">
+        <v>0.03359679928561353</v>
+      </c>
+      <c r="I69">
+        <v>-0.01199966325617186</v>
+      </c>
+      <c r="J69">
+        <v>-0.004801520100441412</v>
+      </c>
+      <c r="K69">
+        <v>0.001743577063522267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.01489896265806409</v>
+        <v>0.03925628741541513</v>
       </c>
       <c r="C70">
-        <v>-0.01588631854765301</v>
+        <v>-0.004328088064942814</v>
       </c>
       <c r="D70">
-        <v>-0.005138467345763895</v>
+        <v>-0.007981642437622768</v>
       </c>
       <c r="E70">
-        <v>-0.0151900659056284</v>
+        <v>-0.006386617484844014</v>
       </c>
       <c r="F70">
-        <v>-0.01305210503555422</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.05119124728658699</v>
+      </c>
+      <c r="G70">
+        <v>-0.009880325964188323</v>
+      </c>
+      <c r="H70">
+        <v>-0.02874848472093423</v>
+      </c>
+      <c r="I70">
+        <v>0.03162368771146903</v>
+      </c>
+      <c r="J70">
+        <v>-0.01730961497406093</v>
+      </c>
+      <c r="K70">
+        <v>-0.120620396634659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04109308676606457</v>
+        <v>0.08872836820691911</v>
       </c>
       <c r="C71">
-        <v>-0.2877487443200988</v>
+        <v>0.2996185589878765</v>
       </c>
       <c r="D71">
-        <v>-0.01502013230900148</v>
+        <v>0.01777187940109488</v>
       </c>
       <c r="E71">
-        <v>0.07447028358752122</v>
+        <v>-0.03367830276440371</v>
       </c>
       <c r="F71">
-        <v>0.03114690851020194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03769348115477657</v>
+      </c>
+      <c r="G71">
+        <v>0.005385712758557078</v>
+      </c>
+      <c r="H71">
+        <v>0.01277992237048882</v>
+      </c>
+      <c r="I71">
+        <v>-0.01693589503259664</v>
+      </c>
+      <c r="J71">
+        <v>0.009294809229370114</v>
+      </c>
+      <c r="K71">
+        <v>-0.003783132601196912</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1448215781353538</v>
+        <v>0.1356472370096967</v>
       </c>
       <c r="C72">
-        <v>-0.04176754775451082</v>
+        <v>0.002403631895972746</v>
       </c>
       <c r="D72">
-        <v>0.03519214989592445</v>
+        <v>0.01407913784105048</v>
       </c>
       <c r="E72">
-        <v>-0.2317376520973547</v>
+        <v>0.1671644741597766</v>
       </c>
       <c r="F72">
-        <v>0.04413162644805298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02765011137969543</v>
+      </c>
+      <c r="G72">
+        <v>-0.1175995964090033</v>
+      </c>
+      <c r="H72">
+        <v>0.02815109598263309</v>
+      </c>
+      <c r="I72">
+        <v>0.008019892417253255</v>
+      </c>
+      <c r="J72">
+        <v>0.1042321325993277</v>
+      </c>
+      <c r="K72">
+        <v>0.124523947727975</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2511390948098949</v>
+        <v>0.2445173377510287</v>
       </c>
       <c r="C73">
-        <v>0.05359603293502255</v>
+        <v>-0.1048727524591573</v>
       </c>
       <c r="D73">
-        <v>0.08960230044461241</v>
+        <v>-0.1856387729815952</v>
       </c>
       <c r="E73">
-        <v>0.09571171411097701</v>
+        <v>-0.07623573659548598</v>
       </c>
       <c r="F73">
-        <v>-0.1909632278785444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.215074287725167</v>
+      </c>
+      <c r="G73">
+        <v>0.2031793428745867</v>
+      </c>
+      <c r="H73">
+        <v>-0.2653937163183725</v>
+      </c>
+      <c r="I73">
+        <v>0.1416813197147653</v>
+      </c>
+      <c r="J73">
+        <v>-0.2247887710297967</v>
+      </c>
+      <c r="K73">
+        <v>0.4644928637226199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.0861507545563415</v>
+        <v>0.09298482368888696</v>
       </c>
       <c r="C74">
-        <v>-0.01329937458916801</v>
+        <v>-0.03057153127226546</v>
       </c>
       <c r="D74">
-        <v>0.05778568086162311</v>
+        <v>-0.0455583023279527</v>
       </c>
       <c r="E74">
-        <v>0.006365124090174465</v>
+        <v>0.01393701943737573</v>
       </c>
       <c r="F74">
-        <v>-0.0007507590369309099</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.0111475672878983</v>
+      </c>
+      <c r="G74">
+        <v>0.03960395109773689</v>
+      </c>
+      <c r="H74">
+        <v>0.1383529724538061</v>
+      </c>
+      <c r="I74">
+        <v>0.005367518344085282</v>
+      </c>
+      <c r="J74">
+        <v>-0.003770688373933308</v>
+      </c>
+      <c r="K74">
+        <v>0.05403768174179762</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.1228306530293139</v>
+        <v>0.1052217720486947</v>
       </c>
       <c r="C75">
-        <v>-0.0004520210431298654</v>
+        <v>-0.02979154743225587</v>
       </c>
       <c r="D75">
-        <v>0.003775153473761565</v>
+        <v>0.0122011134731913</v>
       </c>
       <c r="E75">
-        <v>0.02223687794955547</v>
+        <v>-0.003177059160476107</v>
       </c>
       <c r="F75">
-        <v>-0.03651978736054846</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03052056768159065</v>
+      </c>
+      <c r="G75">
+        <v>0.02390523483272747</v>
+      </c>
+      <c r="H75">
+        <v>0.1233493936556428</v>
+      </c>
+      <c r="I75">
+        <v>0.02765359570109715</v>
+      </c>
+      <c r="J75">
+        <v>0.04236352057399845</v>
+      </c>
+      <c r="K75">
+        <v>0.004419752671576706</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1417059512512839</v>
+        <v>0.1271757560305389</v>
       </c>
       <c r="C76">
-        <v>-0.003389190356365881</v>
+        <v>-0.04890102499098496</v>
       </c>
       <c r="D76">
-        <v>0.07150437098651746</v>
+        <v>-0.06511694949741687</v>
       </c>
       <c r="E76">
-        <v>0.0251583920528853</v>
+        <v>-0.005034353581915016</v>
       </c>
       <c r="F76">
-        <v>2.8063068170754e-05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01208811304965379</v>
+      </c>
+      <c r="G76">
+        <v>0.02512064163590315</v>
+      </c>
+      <c r="H76">
+        <v>0.2617159087733549</v>
+      </c>
+      <c r="I76">
+        <v>0.04806927085538239</v>
+      </c>
+      <c r="J76">
+        <v>0.04602698901831282</v>
+      </c>
+      <c r="K76">
+        <v>0.01088066031045158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1341935416363455</v>
+        <v>0.09193743826470838</v>
       </c>
       <c r="C77">
-        <v>0.0343011805729322</v>
+        <v>-0.03097887167674431</v>
       </c>
       <c r="D77">
-        <v>-0.08019472839099161</v>
+        <v>0.1468278614504581</v>
       </c>
       <c r="E77">
-        <v>0.02381749626306636</v>
+        <v>-0.1024363309693831</v>
       </c>
       <c r="F77">
-        <v>0.4269973257788231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.06473194367601215</v>
+      </c>
+      <c r="G77">
+        <v>-0.742199654360952</v>
+      </c>
+      <c r="H77">
+        <v>-0.1833668904755191</v>
+      </c>
+      <c r="I77">
+        <v>0.4003126020652195</v>
+      </c>
+      <c r="J77">
+        <v>-0.0769746657396075</v>
+      </c>
+      <c r="K77">
+        <v>0.0232202051404371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.129161525144519</v>
+        <v>0.1644523473052662</v>
       </c>
       <c r="C78">
-        <v>0.07350872827438568</v>
+        <v>-0.07704107941541513</v>
       </c>
       <c r="D78">
-        <v>0.04187072503558346</v>
+        <v>0.01242055844253537</v>
       </c>
       <c r="E78">
-        <v>0.01084249450103442</v>
+        <v>-0.06590250209908634</v>
       </c>
       <c r="F78">
-        <v>0.09460667412389666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1670299468448687</v>
+      </c>
+      <c r="G78">
+        <v>-0.03111197892638879</v>
+      </c>
+      <c r="H78">
+        <v>-0.08922542591690505</v>
+      </c>
+      <c r="I78">
+        <v>-0.04964944402789104</v>
+      </c>
+      <c r="J78">
+        <v>0.04157031230237</v>
+      </c>
+      <c r="K78">
+        <v>0.1117284341087507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1507622978185373</v>
+        <v>0.1445890477432446</v>
       </c>
       <c r="C79">
-        <v>0.02111421504645725</v>
+        <v>-0.04218548985231642</v>
       </c>
       <c r="D79">
-        <v>0.0619768404925754</v>
+        <v>-0.04575239938376692</v>
       </c>
       <c r="E79">
-        <v>0.004434025255968042</v>
+        <v>0.008135190346675487</v>
       </c>
       <c r="F79">
-        <v>-0.05850714250483637</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.005357797237501545</v>
+      </c>
+      <c r="G79">
+        <v>-0.0165155659408945</v>
+      </c>
+      <c r="H79">
+        <v>0.1922090688959017</v>
+      </c>
+      <c r="I79">
+        <v>0.04976022844198268</v>
+      </c>
+      <c r="J79">
+        <v>0.07903550099799252</v>
+      </c>
+      <c r="K79">
+        <v>0.01349591770110586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03815563346839817</v>
+        <v>0.04368352991697768</v>
       </c>
       <c r="C80">
-        <v>0.01906084130838206</v>
+        <v>-0.007931511802187674</v>
       </c>
       <c r="D80">
-        <v>0.01092638590151293</v>
+        <v>-0.04696532602125301</v>
       </c>
       <c r="E80">
-        <v>0.008345954920785699</v>
+        <v>0.00548899183781583</v>
       </c>
       <c r="F80">
-        <v>-7.107002094274249e-06</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.03199035229179783</v>
+      </c>
+      <c r="G80">
+        <v>0.00306169982330071</v>
+      </c>
+      <c r="H80">
+        <v>-0.03727424628858512</v>
+      </c>
+      <c r="I80">
+        <v>-0.07723027106972953</v>
+      </c>
+      <c r="J80">
+        <v>-0.02780909084131837</v>
+      </c>
+      <c r="K80">
+        <v>-0.01346478126433781</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1361449593842327</v>
+        <v>0.1323862055360098</v>
       </c>
       <c r="C81">
-        <v>0.0004311501672650193</v>
+        <v>-0.01853137143300961</v>
       </c>
       <c r="D81">
-        <v>0.04945772295939729</v>
+        <v>-0.03851381424905043</v>
       </c>
       <c r="E81">
-        <v>0.03162950775106019</v>
+        <v>0.003113150218636361</v>
       </c>
       <c r="F81">
-        <v>-0.05024872867798082</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.004331723943986305</v>
+      </c>
+      <c r="G81">
+        <v>0.01452049656068894</v>
+      </c>
+      <c r="H81">
+        <v>0.1501133017015638</v>
+      </c>
+      <c r="I81">
+        <v>0.01887986973501951</v>
+      </c>
+      <c r="J81">
+        <v>-0.02083762874757355</v>
+      </c>
+      <c r="K81">
+        <v>-0.01566743980923749</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.123097176844047</v>
+        <v>0.1269742256935909</v>
       </c>
       <c r="C82">
-        <v>0.01650821658542869</v>
+        <v>-0.02886132760389572</v>
       </c>
       <c r="D82">
-        <v>0.03109114482477243</v>
+        <v>-0.04385081316561492</v>
       </c>
       <c r="E82">
-        <v>0.04064976238299007</v>
+        <v>-0.003601979303478953</v>
       </c>
       <c r="F82">
-        <v>-0.05412081745879267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01904546806308156</v>
+      </c>
+      <c r="G82">
+        <v>0.03260042367956813</v>
+      </c>
+      <c r="H82">
+        <v>0.2798182250909057</v>
+      </c>
+      <c r="I82">
+        <v>0.04463779140877667</v>
+      </c>
+      <c r="J82">
+        <v>0.0006530508416040177</v>
+      </c>
+      <c r="K82">
+        <v>-0.0232280432867582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.05470731734591688</v>
+        <v>0.07695756649300571</v>
       </c>
       <c r="C83">
-        <v>0.01420684410180479</v>
+        <v>-0.03206458709052708</v>
       </c>
       <c r="D83">
-        <v>-0.0699379391514159</v>
+        <v>0.02677687332946487</v>
       </c>
       <c r="E83">
-        <v>0.0196606699666945</v>
+        <v>-0.04131173114431952</v>
       </c>
       <c r="F83">
-        <v>-0.08521025352627218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.07734018784470408</v>
+      </c>
+      <c r="G83">
+        <v>0.03392280401973197</v>
+      </c>
+      <c r="H83">
+        <v>-0.06155991039088728</v>
+      </c>
+      <c r="I83">
+        <v>-0.07205281524983528</v>
+      </c>
+      <c r="J83">
+        <v>-0.05519145487449564</v>
+      </c>
+      <c r="K83">
+        <v>-0.03949721211790544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05057750561628128</v>
+        <v>0.03455356302197787</v>
       </c>
       <c r="C84">
-        <v>0.01284729522168353</v>
+        <v>-0.04320626471203621</v>
       </c>
       <c r="D84">
-        <v>0.04171697816934777</v>
+        <v>0.003378583037731064</v>
       </c>
       <c r="E84">
-        <v>-0.02610300370006242</v>
+        <v>0.05086086308845163</v>
       </c>
       <c r="F84">
-        <v>-0.01461419246350316</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.044176543883081</v>
+      </c>
+      <c r="G84">
+        <v>0.04719125402619581</v>
+      </c>
+      <c r="H84">
+        <v>0.009067873428300892</v>
+      </c>
+      <c r="I84">
+        <v>-0.1141741744245768</v>
+      </c>
+      <c r="J84">
+        <v>-0.03987701362826423</v>
+      </c>
+      <c r="K84">
+        <v>-0.1058068093325182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1116602230357397</v>
+        <v>0.1197858275814232</v>
       </c>
       <c r="C85">
-        <v>0.03312202512425323</v>
+        <v>-0.03511615941779667</v>
       </c>
       <c r="D85">
-        <v>0.02436646029365236</v>
+        <v>-0.03235657202086558</v>
       </c>
       <c r="E85">
-        <v>0.06200650047172352</v>
+        <v>-0.03616165543383943</v>
       </c>
       <c r="F85">
-        <v>0.0009278733825555442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.01013950326805408</v>
+      </c>
+      <c r="G85">
+        <v>-0.007787225349007048</v>
+      </c>
+      <c r="H85">
+        <v>0.1968009986758746</v>
+      </c>
+      <c r="I85">
+        <v>0.0153050812991737</v>
+      </c>
+      <c r="J85">
+        <v>0.07661081276207864</v>
+      </c>
+      <c r="K85">
+        <v>0.02098728294037952</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.07709723307735118</v>
+        <v>0.07030687411853576</v>
       </c>
       <c r="C86">
-        <v>0.06502213213968733</v>
+        <v>-0.03374552631106684</v>
       </c>
       <c r="D86">
-        <v>0.01833794794904804</v>
+        <v>0.008902129161694026</v>
       </c>
       <c r="E86">
-        <v>0.01157861852517161</v>
+        <v>-0.02193454134553122</v>
       </c>
       <c r="F86">
-        <v>0.03067379179768867</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03491198859655329</v>
+      </c>
+      <c r="G86">
+        <v>0.00780597434090486</v>
+      </c>
+      <c r="H86">
+        <v>-0.03081332117911571</v>
+      </c>
+      <c r="I86">
+        <v>-0.0009964329119480902</v>
+      </c>
+      <c r="J86">
+        <v>0.02830383919343787</v>
+      </c>
+      <c r="K86">
+        <v>-0.03109589258626305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1310752888060326</v>
+        <v>0.1279049950142238</v>
       </c>
       <c r="C87">
-        <v>0.06758215325605323</v>
+        <v>-0.07357421329690288</v>
       </c>
       <c r="D87">
-        <v>0.05444623776705109</v>
+        <v>-0.00441744860292151</v>
       </c>
       <c r="E87">
-        <v>0.03756960229150922</v>
+        <v>-0.01006029081675255</v>
       </c>
       <c r="F87">
-        <v>0.1854671272879122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1031472617483356</v>
+      </c>
+      <c r="G87">
+        <v>-0.2023179108693147</v>
+      </c>
+      <c r="H87">
+        <v>-0.07346271357398804</v>
+      </c>
+      <c r="I87">
+        <v>0.03501870469449722</v>
+      </c>
+      <c r="J87">
+        <v>-0.01598972488976946</v>
+      </c>
+      <c r="K87">
+        <v>-0.03821983957167145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.0579757398956092</v>
+        <v>0.06516396527898717</v>
       </c>
       <c r="C88">
-        <v>0.02242547890304346</v>
+        <v>-0.03687468573312722</v>
       </c>
       <c r="D88">
-        <v>0.01855802494109463</v>
+        <v>-0.03589819660952909</v>
       </c>
       <c r="E88">
-        <v>0.01045134006922257</v>
+        <v>-0.01041945076323912</v>
       </c>
       <c r="F88">
-        <v>0.001925424603567249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.001321580267024264</v>
+      </c>
+      <c r="G88">
+        <v>-0.01088288444115684</v>
+      </c>
+      <c r="H88">
+        <v>0.01671334160200675</v>
+      </c>
+      <c r="I88">
+        <v>-0.03668634208944926</v>
+      </c>
+      <c r="J88">
+        <v>-0.03315255643426684</v>
+      </c>
+      <c r="K88">
+        <v>-0.01894140985812905</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.08046583552630582</v>
+        <v>0.1464984769452463</v>
       </c>
       <c r="C89">
-        <v>-0.3243868022095074</v>
+        <v>0.3740086302619116</v>
       </c>
       <c r="D89">
-        <v>-0.01309716462343641</v>
+        <v>0.008852254439703718</v>
       </c>
       <c r="E89">
-        <v>0.1062492802080005</v>
+        <v>-0.07933534849247778</v>
       </c>
       <c r="F89">
-        <v>0.04442269641907822</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03310459114991783</v>
+      </c>
+      <c r="G89">
+        <v>0.03409114942049953</v>
+      </c>
+      <c r="H89">
+        <v>-0.0100166959575666</v>
+      </c>
+      <c r="I89">
+        <v>-0.05741794606331426</v>
+      </c>
+      <c r="J89">
+        <v>-0.08807883529829769</v>
+      </c>
+      <c r="K89">
+        <v>0.01502476892252004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.06471689512293144</v>
+        <v>0.1019955697253155</v>
       </c>
       <c r="C90">
-        <v>-0.2901681057193274</v>
+        <v>0.2824009355799386</v>
       </c>
       <c r="D90">
-        <v>-0.03483293890455117</v>
+        <v>0.03069154551905364</v>
       </c>
       <c r="E90">
-        <v>0.04755108249536221</v>
+        <v>-0.03089234090202643</v>
       </c>
       <c r="F90">
-        <v>0.06912761975868295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01038080134692045</v>
+      </c>
+      <c r="G90">
+        <v>-0.03125633185612067</v>
+      </c>
+      <c r="H90">
+        <v>-0.03692013316432063</v>
+      </c>
+      <c r="I90">
+        <v>-0.04948672575186461</v>
+      </c>
+      <c r="J90">
+        <v>-0.06737441881336159</v>
+      </c>
+      <c r="K90">
+        <v>0.01221164789979749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.1035381032329401</v>
+        <v>0.08872729066362169</v>
       </c>
       <c r="C91">
-        <v>0.01209355822403381</v>
+        <v>-0.03719926589579082</v>
       </c>
       <c r="D91">
-        <v>0.03385652432243484</v>
+        <v>-0.00964121617053929</v>
       </c>
       <c r="E91">
-        <v>0.0151486707148353</v>
+        <v>0.001759615629296748</v>
       </c>
       <c r="F91">
-        <v>-0.0150026346408295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.00454919930486683</v>
+      </c>
+      <c r="G91">
+        <v>0.03487238873413848</v>
+      </c>
+      <c r="H91">
+        <v>0.08289389031916056</v>
+      </c>
+      <c r="I91">
+        <v>0.02019445064910399</v>
+      </c>
+      <c r="J91">
+        <v>0.01799777190388369</v>
+      </c>
+      <c r="K91">
+        <v>0.01230688999012372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.04951829114687264</v>
+        <v>0.103849505932629</v>
       </c>
       <c r="C92">
-        <v>-0.3371079069612475</v>
+        <v>0.3381717419453355</v>
       </c>
       <c r="D92">
-        <v>0.005782896841718871</v>
+        <v>0.004695895915067589</v>
       </c>
       <c r="E92">
-        <v>0.08685816459542332</v>
+        <v>-0.04096868934485212</v>
       </c>
       <c r="F92">
-        <v>0.01683146503383047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04395529605604282</v>
+      </c>
+      <c r="G92">
+        <v>0.02364955437857446</v>
+      </c>
+      <c r="H92">
+        <v>0.01948957147997514</v>
+      </c>
+      <c r="I92">
+        <v>-0.02085876121932024</v>
+      </c>
+      <c r="J92">
+        <v>-0.030178191048419</v>
+      </c>
+      <c r="K92">
+        <v>-0.0007200393432753904</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.04734075076111858</v>
+        <v>0.1049339542860768</v>
       </c>
       <c r="C93">
-        <v>-0.2987380373516809</v>
+        <v>0.314331229992093</v>
       </c>
       <c r="D93">
-        <v>-0.01133150765650904</v>
+        <v>0.001519174881181435</v>
       </c>
       <c r="E93">
-        <v>0.05175115542625555</v>
+        <v>-0.02055602255884137</v>
       </c>
       <c r="F93">
-        <v>0.04027787311566484</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.008073745896496235</v>
+      </c>
+      <c r="G93">
+        <v>0.002654748208852432</v>
+      </c>
+      <c r="H93">
+        <v>-0.01730900109722684</v>
+      </c>
+      <c r="I93">
+        <v>0.0001939005560123424</v>
+      </c>
+      <c r="J93">
+        <v>0.00533550392370338</v>
+      </c>
+      <c r="K93">
+        <v>-0.02952924745360354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.1284920885066731</v>
+        <v>0.1211446301480238</v>
       </c>
       <c r="C94">
-        <v>0.05780102219673929</v>
+        <v>-0.05922804995363515</v>
       </c>
       <c r="D94">
-        <v>0.02831555995194199</v>
+        <v>-0.008390168491544931</v>
       </c>
       <c r="E94">
-        <v>0.03497166037256177</v>
+        <v>-0.0248416721893442</v>
       </c>
       <c r="F94">
-        <v>-0.03094849801159662</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.0007068102538573066</v>
+      </c>
+      <c r="G94">
+        <v>0.06964688969837329</v>
+      </c>
+      <c r="H94">
+        <v>0.1177606092453154</v>
+      </c>
+      <c r="I94">
+        <v>0.01217486439584771</v>
+      </c>
+      <c r="J94">
+        <v>0.02036568476345407</v>
+      </c>
+      <c r="K94">
+        <v>0.01286341576995362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1233941026656866</v>
+        <v>0.1356784099224462</v>
       </c>
       <c r="C95">
-        <v>0.07818609319580123</v>
+        <v>-0.0654097369885908</v>
       </c>
       <c r="D95">
-        <v>0.06537062424091272</v>
+        <v>-0.03722938440931713</v>
       </c>
       <c r="E95">
-        <v>0.06884890553976662</v>
+        <v>-0.02820424759220382</v>
       </c>
       <c r="F95">
-        <v>-0.041345360175783</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.06042229826625373</v>
+      </c>
+      <c r="G95">
+        <v>-0.04205516086338948</v>
+      </c>
+      <c r="H95">
+        <v>-0.1468976381097272</v>
+      </c>
+      <c r="I95">
+        <v>-0.05979386674885663</v>
+      </c>
+      <c r="J95">
+        <v>0.03136478023952611</v>
+      </c>
+      <c r="K95">
+        <v>-0.003640255694155598</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2514095786389822</v>
+        <v>0.186932168267489</v>
       </c>
       <c r="C97">
-        <v>-0.138373920419539</v>
+        <v>0.02948916734605355</v>
       </c>
       <c r="D97">
-        <v>0.04627613384244584</v>
+        <v>0.2589920702213148</v>
       </c>
       <c r="E97">
-        <v>-0.8915431568637648</v>
+        <v>0.8996754118659687</v>
       </c>
       <c r="F97">
-        <v>0.006230777563418426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.09465023779051178</v>
+      </c>
+      <c r="G97">
+        <v>-0.04947380050880213</v>
+      </c>
+      <c r="H97">
+        <v>-0.047975120319383</v>
+      </c>
+      <c r="I97">
+        <v>-0.04137619040132094</v>
+      </c>
+      <c r="J97">
+        <v>-0.06111524728441446</v>
+      </c>
+      <c r="K97">
+        <v>0.05223044916584147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.2900257469324339</v>
+        <v>0.2847132835703825</v>
       </c>
       <c r="C98">
-        <v>0.04169763114177673</v>
+        <v>-0.09840932002409294</v>
       </c>
       <c r="D98">
-        <v>-0.01589883842282565</v>
+        <v>-0.0898922724729958</v>
       </c>
       <c r="E98">
-        <v>0.08652018335118791</v>
+        <v>-0.003287778524377749</v>
       </c>
       <c r="F98">
-        <v>-0.5480850196319078</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2938404229110693</v>
+      </c>
+      <c r="G98">
+        <v>0.263576886268805</v>
+      </c>
+      <c r="H98">
+        <v>-0.2985475847685577</v>
+      </c>
+      <c r="I98">
+        <v>0.2415114558814897</v>
+      </c>
+      <c r="J98">
+        <v>0.01341274928820976</v>
+      </c>
+      <c r="K98">
+        <v>-0.6370056483352808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.23319027010634</v>
+        <v>0.1499544413018569</v>
       </c>
       <c r="C99">
-        <v>0.06022891654723953</v>
+        <v>-0.07293483873367319</v>
       </c>
       <c r="D99">
-        <v>-0.9219456315623119</v>
+        <v>0.6822106043730076</v>
       </c>
       <c r="E99">
-        <v>-0.006556097553064618</v>
+        <v>-0.289028508182064</v>
       </c>
       <c r="F99">
-        <v>-0.09232175375258858</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.5397392909884333</v>
+      </c>
+      <c r="G99">
+        <v>-0.03892494876897529</v>
+      </c>
+      <c r="H99">
+        <v>0.1371811125642908</v>
+      </c>
+      <c r="I99">
+        <v>-0.09274553788090457</v>
+      </c>
+      <c r="J99">
+        <v>0.08545651907497763</v>
+      </c>
+      <c r="K99">
+        <v>0.04990227018339261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4197,60 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05816656517790236</v>
+        <v>0.05458888257621975</v>
       </c>
       <c r="C101">
-        <v>0.0009339685848843706</v>
+        <v>-0.01112557316949103</v>
       </c>
       <c r="D101">
-        <v>0.03091960333722442</v>
+        <v>-0.02176181003505404</v>
       </c>
       <c r="E101">
-        <v>0.02385781018685119</v>
+        <v>-0.0169369656460495</v>
       </c>
       <c r="F101">
-        <v>0.02811233476557353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03715825993012509</v>
+      </c>
+      <c r="G101">
+        <v>-0.02257779461805762</v>
+      </c>
+      <c r="H101">
+        <v>0.06286340938497224</v>
+      </c>
+      <c r="I101">
+        <v>-0.04498239636291244</v>
+      </c>
+      <c r="J101">
+        <v>0.008051212448857358</v>
+      </c>
+      <c r="K101">
+        <v>-0.03549776323571032</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4267,25 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
